--- a/Template.xlsx
+++ b/Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.takamaru\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.takamaru\source\repos\Verza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671A8F1B-3CBD-4109-AD87-CCDC7F33D368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90AD550-D1F7-40D9-8BA7-969E500B6E10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{23C102BA-4386-4F8C-8CD2-BACD7AA9D08B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
   <si>
     <t>ISC</t>
   </si>
@@ -561,9 +561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F369992-A1D1-4805-9E8E-0134B20A9122}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -673,7 +671,7 @@
         <v>862.2</v>
       </c>
       <c r="D5">
-        <v>1246.06</v>
+        <v>1263.78</v>
       </c>
       <c r="E5">
         <v>259.83999999999997</v>
@@ -693,13 +691,13 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>1712.6</v>
+        <v>1724.41</v>
       </c>
       <c r="D6">
-        <v>1246.06</v>
+        <v>1263.78</v>
       </c>
       <c r="E6">
-        <v>200.79</v>
+        <v>212.6</v>
       </c>
       <c r="F6">
         <v>85.04</v>
@@ -716,13 +714,13 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>1937.01</v>
+        <v>1948.82</v>
       </c>
       <c r="D7">
-        <v>1246.06</v>
+        <v>1263.78</v>
       </c>
       <c r="E7">
-        <v>283.45999999999998</v>
+        <v>295.27999999999997</v>
       </c>
       <c r="F7">
         <v>85.04</v>
@@ -742,7 +740,7 @@
         <v>862.2</v>
       </c>
       <c r="D8">
-        <v>1331.1</v>
+        <v>1349.65</v>
       </c>
       <c r="E8">
         <v>259.83999999999997</v>
@@ -762,13 +760,13 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>1712.6</v>
+        <v>1724.41</v>
       </c>
       <c r="D9">
-        <v>1331.1</v>
+        <v>1349.65</v>
       </c>
       <c r="E9">
-        <v>200.79</v>
+        <v>212.6</v>
       </c>
       <c r="F9">
         <v>85.04</v>
@@ -785,13 +783,13 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>1937.01</v>
+        <v>1948.82</v>
       </c>
       <c r="D10">
-        <v>1331.1</v>
+        <v>1349.65</v>
       </c>
       <c r="E10">
-        <v>283.45999999999998</v>
+        <v>295.27999999999997</v>
       </c>
       <c r="F10">
         <v>85.04</v>
@@ -811,7 +809,7 @@
         <v>862.2</v>
       </c>
       <c r="D11">
-        <v>1416.14</v>
+        <v>1435.39</v>
       </c>
       <c r="E11">
         <v>259.83999999999997</v>
@@ -831,13 +829,13 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>1712.6</v>
+        <v>1724.41</v>
       </c>
       <c r="D12">
-        <v>1416.14</v>
+        <v>1435.39</v>
       </c>
       <c r="E12">
-        <v>200.79</v>
+        <v>212.6</v>
       </c>
       <c r="F12">
         <v>85.04</v>
@@ -854,13 +852,13 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>1937.01</v>
+        <v>1948.82</v>
       </c>
       <c r="D13">
-        <v>1416.14</v>
+        <v>1435.39</v>
       </c>
       <c r="E13">
-        <v>283.45999999999998</v>
+        <v>295.27999999999997</v>
       </c>
       <c r="F13">
         <v>85.04</v>
@@ -880,7 +878,7 @@
         <v>862.2</v>
       </c>
       <c r="D14">
-        <v>1501.18</v>
+        <v>1521.26</v>
       </c>
       <c r="E14">
         <v>259.83999999999997</v>
@@ -900,13 +898,13 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>1712.6</v>
+        <v>1724.41</v>
       </c>
       <c r="D15">
-        <v>1501.18</v>
+        <v>1521.26</v>
       </c>
       <c r="E15">
-        <v>200.79</v>
+        <v>212.6</v>
       </c>
       <c r="F15">
         <v>85.04</v>
@@ -923,13 +921,13 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>1937.01</v>
+        <v>1948.82</v>
       </c>
       <c r="D16">
-        <v>1501.18</v>
+        <v>1521.26</v>
       </c>
       <c r="E16">
-        <v>283.45999999999998</v>
+        <v>295.27999999999997</v>
       </c>
       <c r="F16">
         <v>85.04</v>
@@ -949,7 +947,7 @@
         <v>862.2</v>
       </c>
       <c r="D17">
-        <v>1586.22</v>
+        <v>1607.13</v>
       </c>
       <c r="E17">
         <v>259.83999999999997</v>
@@ -969,13 +967,13 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>1712.6</v>
+        <v>1724.41</v>
       </c>
       <c r="D18">
-        <v>1586.22</v>
+        <v>1607.13</v>
       </c>
       <c r="E18">
-        <v>200.79</v>
+        <v>212.6</v>
       </c>
       <c r="F18">
         <v>85.04</v>
@@ -992,13 +990,13 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>1937.01</v>
+        <v>1948.82</v>
       </c>
       <c r="D19">
-        <v>1586.22</v>
+        <v>1607.13</v>
       </c>
       <c r="E19">
-        <v>283.45999999999998</v>
+        <v>295.27999999999997</v>
       </c>
       <c r="F19">
         <v>85.04</v>
@@ -1018,7 +1016,7 @@
         <v>862.2</v>
       </c>
       <c r="D20">
-        <v>1671.26</v>
+        <v>1692.87</v>
       </c>
       <c r="E20">
         <v>259.83999999999997</v>
@@ -1038,13 +1036,13 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>1712.6</v>
+        <v>1724.41</v>
       </c>
       <c r="D21">
-        <v>1671.26</v>
+        <v>1692.87</v>
       </c>
       <c r="E21">
-        <v>200.79</v>
+        <v>212.6</v>
       </c>
       <c r="F21">
         <v>85.04</v>
@@ -1061,13 +1059,13 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>1937.01</v>
+        <v>1948.82</v>
       </c>
       <c r="D22">
-        <v>1671.26</v>
+        <v>1692.87</v>
       </c>
       <c r="E22">
-        <v>283.45999999999998</v>
+        <v>295.27999999999997</v>
       </c>
       <c r="F22">
         <v>85.04</v>
@@ -1087,7 +1085,7 @@
         <v>862.2</v>
       </c>
       <c r="D23">
-        <v>1756.3</v>
+        <v>1778.74</v>
       </c>
       <c r="E23">
         <v>259.83999999999997</v>
@@ -1107,13 +1105,13 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>1712.6</v>
+        <v>1724.41</v>
       </c>
       <c r="D24">
-        <v>1756.3</v>
+        <v>1778.74</v>
       </c>
       <c r="E24">
-        <v>200.79</v>
+        <v>212.6</v>
       </c>
       <c r="F24">
         <v>85.04</v>
@@ -1130,13 +1128,13 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>1937.01</v>
+        <v>1948.82</v>
       </c>
       <c r="D25">
-        <v>1756.3</v>
+        <v>1778.74</v>
       </c>
       <c r="E25">
-        <v>283.45999999999998</v>
+        <v>295.27999999999997</v>
       </c>
       <c r="F25">
         <v>85.04</v>
@@ -1156,7 +1154,7 @@
         <v>862.2</v>
       </c>
       <c r="D26">
-        <v>1841.34</v>
+        <v>1864.61</v>
       </c>
       <c r="E26">
         <v>259.83999999999997</v>
@@ -1176,13 +1174,13 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>1712.6</v>
+        <v>1724.41</v>
       </c>
       <c r="D27">
-        <v>1841.34</v>
+        <v>1864.61</v>
       </c>
       <c r="E27">
-        <v>200.79</v>
+        <v>212.6</v>
       </c>
       <c r="F27">
         <v>85.04</v>
@@ -1199,13 +1197,13 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>1937.01</v>
+        <v>1948.82</v>
       </c>
       <c r="D28">
-        <v>1841.34</v>
+        <v>1864.61</v>
       </c>
       <c r="E28">
-        <v>283.45999999999998</v>
+        <v>295.27999999999997</v>
       </c>
       <c r="F28">
         <v>85.04</v>
@@ -1225,7 +1223,7 @@
         <v>862.2</v>
       </c>
       <c r="D29">
-        <v>1926.38</v>
+        <v>1950.35</v>
       </c>
       <c r="E29">
         <v>259.83999999999997</v>
@@ -1245,13 +1243,13 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>1712.6</v>
+        <v>1724.41</v>
       </c>
       <c r="D30">
-        <v>1926.38</v>
+        <v>1950.35</v>
       </c>
       <c r="E30">
-        <v>200.79</v>
+        <v>212.6</v>
       </c>
       <c r="F30">
         <v>85.04</v>
@@ -1268,13 +1266,13 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>1937.01</v>
+        <v>1948.82</v>
       </c>
       <c r="D31">
-        <v>1926.38</v>
+        <v>1950.35</v>
       </c>
       <c r="E31">
-        <v>283.45999999999998</v>
+        <v>295.27999999999997</v>
       </c>
       <c r="F31">
         <v>85.04</v>
@@ -1294,7 +1292,7 @@
         <v>862.2</v>
       </c>
       <c r="D32">
-        <v>2011.42</v>
+        <v>2036.22</v>
       </c>
       <c r="E32">
         <v>259.83999999999997</v>
@@ -1314,13 +1312,13 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>1712.6</v>
+        <v>1724.41</v>
       </c>
       <c r="D33">
-        <v>2011.42</v>
+        <v>2036.22</v>
       </c>
       <c r="E33">
-        <v>200.79</v>
+        <v>212.6</v>
       </c>
       <c r="F33">
         <v>85.04</v>
@@ -1337,13 +1335,13 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>1937.01</v>
+        <v>1948.82</v>
       </c>
       <c r="D34">
-        <v>2011.42</v>
+        <v>2036.22</v>
       </c>
       <c r="E34">
-        <v>283.45999999999998</v>
+        <v>295.27999999999997</v>
       </c>
       <c r="F34">
         <v>85.04</v>
@@ -1363,7 +1361,7 @@
         <v>862.2</v>
       </c>
       <c r="D35">
-        <v>2096.46</v>
+        <v>2122.09</v>
       </c>
       <c r="E35">
         <v>259.83999999999997</v>
@@ -1383,13 +1381,13 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>1712.6</v>
+        <v>1724.41</v>
       </c>
       <c r="D36">
-        <v>2096.46</v>
+        <v>2122.09</v>
       </c>
       <c r="E36">
-        <v>200.79</v>
+        <v>212.6</v>
       </c>
       <c r="F36">
         <v>85.04</v>
@@ -1406,13 +1404,13 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>1937.01</v>
+        <v>1948.82</v>
       </c>
       <c r="D37">
-        <v>2096.46</v>
+        <v>2122.09</v>
       </c>
       <c r="E37">
-        <v>283.45999999999998</v>
+        <v>295.27999999999997</v>
       </c>
       <c r="F37">
         <v>85.04</v>
@@ -1432,7 +1430,7 @@
         <v>862.2</v>
       </c>
       <c r="D38">
-        <v>2181.5</v>
+        <v>2207.83</v>
       </c>
       <c r="E38">
         <v>259.83999999999997</v>
@@ -1452,13 +1450,13 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>1712.6</v>
+        <v>1724.41</v>
       </c>
       <c r="D39">
-        <v>2181.5</v>
+        <v>2207.83</v>
       </c>
       <c r="E39">
-        <v>200.79</v>
+        <v>212.6</v>
       </c>
       <c r="F39">
         <v>85.04</v>
@@ -1475,13 +1473,13 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>1937.01</v>
+        <v>1948.82</v>
       </c>
       <c r="D40">
-        <v>2181.5</v>
+        <v>2207.83</v>
       </c>
       <c r="E40">
-        <v>283.45999999999998</v>
+        <v>295.27999999999997</v>
       </c>
       <c r="F40">
         <v>85.04</v>
@@ -1501,7 +1499,7 @@
         <v>862.2</v>
       </c>
       <c r="D41">
-        <v>2266.54</v>
+        <v>2293.6999999999998</v>
       </c>
       <c r="E41">
         <v>259.83999999999997</v>
@@ -1521,13 +1519,13 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>1712.6</v>
+        <v>1724.41</v>
       </c>
       <c r="D42">
-        <v>2266.54</v>
+        <v>2293.6999999999998</v>
       </c>
       <c r="E42">
-        <v>200.79</v>
+        <v>212.6</v>
       </c>
       <c r="F42">
         <v>85.04</v>
@@ -1544,13 +1542,13 @@
         <v>44</v>
       </c>
       <c r="C43">
-        <v>1937.01</v>
+        <v>1948.82</v>
       </c>
       <c r="D43">
-        <v>2266.54</v>
+        <v>2293.6999999999998</v>
       </c>
       <c r="E43">
-        <v>283.45999999999998</v>
+        <v>295.27999999999997</v>
       </c>
       <c r="F43">
         <v>85.04</v>
@@ -1570,7 +1568,7 @@
         <v>862.2</v>
       </c>
       <c r="D44">
-        <v>2351.5700000000002</v>
+        <v>2379.5700000000002</v>
       </c>
       <c r="E44">
         <v>259.83999999999997</v>
@@ -1590,13 +1588,13 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>1712.6</v>
+        <v>1724.41</v>
       </c>
       <c r="D45">
-        <v>2351.5700000000002</v>
+        <v>2379.5700000000002</v>
       </c>
       <c r="E45">
-        <v>200.79</v>
+        <v>212.6</v>
       </c>
       <c r="F45">
         <v>85.04</v>
@@ -1613,13 +1611,13 @@
         <v>47</v>
       </c>
       <c r="C46">
-        <v>1937.01</v>
+        <v>1948.82</v>
       </c>
       <c r="D46">
-        <v>2351.5700000000002</v>
+        <v>2379.5700000000002</v>
       </c>
       <c r="E46">
-        <v>283.45999999999998</v>
+        <v>295.27999999999997</v>
       </c>
       <c r="F46">
         <v>85.04</v>
@@ -1639,7 +1637,7 @@
         <v>862.2</v>
       </c>
       <c r="D47">
-        <v>2436.61</v>
+        <v>2465.31</v>
       </c>
       <c r="E47">
         <v>259.83999999999997</v>
@@ -1659,13 +1657,13 @@
         <v>49</v>
       </c>
       <c r="C48">
-        <v>1712.6</v>
+        <v>1724.41</v>
       </c>
       <c r="D48">
-        <v>2436.61</v>
+        <v>2465.31</v>
       </c>
       <c r="E48">
-        <v>200.79</v>
+        <v>212.6</v>
       </c>
       <c r="F48">
         <v>85.04</v>
@@ -1682,13 +1680,13 @@
         <v>50</v>
       </c>
       <c r="C49">
-        <v>1937.01</v>
+        <v>1948.82</v>
       </c>
       <c r="D49">
-        <v>2436.61</v>
+        <v>2465.31</v>
       </c>
       <c r="E49">
-        <v>283.45999999999998</v>
+        <v>295.27999999999997</v>
       </c>
       <c r="F49">
         <v>85.04</v>
@@ -1705,15 +1703,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FA7652-4B54-4ADB-A51A-2416346377E5}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1735,11 +1733,8 @@
       <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1762,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1785,7 +1780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1808,7 +1803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1819,7 +1814,7 @@
         <v>73</v>
       </c>
       <c r="D5">
-        <v>105.5</v>
+        <v>107</v>
       </c>
       <c r="E5">
         <v>22</v>
@@ -1831,7 +1826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1839,13 +1834,13 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D6">
-        <v>105.5</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6">
         <v>7.2</v>
@@ -1854,7 +1849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1862,13 +1857,13 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D7">
-        <v>105.5</v>
+        <v>107</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>7.2</v>
@@ -1877,7 +1872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1888,7 +1883,7 @@
         <v>73</v>
       </c>
       <c r="D8">
-        <v>112.7</v>
+        <v>114.27</v>
       </c>
       <c r="E8">
         <v>22</v>
@@ -1900,7 +1895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1908,13 +1903,13 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D9">
-        <v>112.7</v>
+        <v>114.27</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9">
         <v>7.2</v>
@@ -1923,7 +1918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1931,13 +1926,13 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D10">
-        <v>112.7</v>
+        <v>114.27</v>
       </c>
       <c r="E10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10">
         <v>7.2</v>
@@ -1946,7 +1941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1957,7 +1952,7 @@
         <v>73</v>
       </c>
       <c r="D11">
-        <v>119.9</v>
+        <v>121.53</v>
       </c>
       <c r="E11">
         <v>22</v>
@@ -1969,7 +1964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1977,13 +1972,13 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D12">
-        <v>119.9</v>
+        <v>121.53</v>
       </c>
       <c r="E12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12">
         <v>7.2</v>
@@ -1992,7 +1987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2000,13 +1995,13 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D13">
-        <v>119.9</v>
+        <v>121.53</v>
       </c>
       <c r="E13">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13">
         <v>7.2</v>
@@ -2015,7 +2010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2026,7 +2021,7 @@
         <v>73</v>
       </c>
       <c r="D14">
-        <v>127.1</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="E14">
         <v>22</v>
@@ -2038,7 +2033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2046,13 +2041,13 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D15">
-        <v>127.1</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="E15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15">
         <v>7.2</v>
@@ -2061,7 +2056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2069,13 +2064,13 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D16">
-        <v>127.1</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="E16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F16">
         <v>7.2</v>
@@ -2095,7 +2090,7 @@
         <v>73</v>
       </c>
       <c r="D17">
-        <v>134.30000000000001</v>
+        <v>136.07</v>
       </c>
       <c r="E17">
         <v>22</v>
@@ -2115,13 +2110,13 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D18">
-        <v>134.30000000000001</v>
+        <v>136.07</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18">
         <v>7.2</v>
@@ -2138,13 +2133,13 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D19">
-        <v>134.30000000000001</v>
+        <v>136.07</v>
       </c>
       <c r="E19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F19">
         <v>7.2</v>
@@ -2164,7 +2159,7 @@
         <v>73</v>
       </c>
       <c r="D20">
-        <v>141.5</v>
+        <v>143.33000000000001</v>
       </c>
       <c r="E20">
         <v>22</v>
@@ -2184,13 +2179,13 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D21">
-        <v>141.5</v>
+        <v>143.33000000000001</v>
       </c>
       <c r="E21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21">
         <v>7.2</v>
@@ -2207,13 +2202,13 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D22">
-        <v>141.5</v>
+        <v>143.33000000000001</v>
       </c>
       <c r="E22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F22">
         <v>7.2</v>
@@ -2233,7 +2228,7 @@
         <v>73</v>
       </c>
       <c r="D23">
-        <v>148.69999999999999</v>
+        <v>150.6</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -2253,13 +2248,13 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D24">
-        <v>148.69999999999999</v>
+        <v>150.6</v>
       </c>
       <c r="E24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F24">
         <v>7.2</v>
@@ -2276,13 +2271,13 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D25">
-        <v>148.69999999999999</v>
+        <v>150.6</v>
       </c>
       <c r="E25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F25">
         <v>7.2</v>
@@ -2302,7 +2297,7 @@
         <v>73</v>
       </c>
       <c r="D26">
-        <v>155.9</v>
+        <v>157.87</v>
       </c>
       <c r="E26">
         <v>22</v>
@@ -2322,13 +2317,13 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D27">
-        <v>155.9</v>
+        <v>157.87</v>
       </c>
       <c r="E27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F27">
         <v>7.2</v>
@@ -2345,13 +2340,13 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D28">
-        <v>155.9</v>
+        <v>157.87</v>
       </c>
       <c r="E28">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F28">
         <v>7.2</v>
@@ -2371,7 +2366,7 @@
         <v>73</v>
       </c>
       <c r="D29">
-        <v>163.1</v>
+        <v>165.13</v>
       </c>
       <c r="E29">
         <v>22</v>
@@ -2391,13 +2386,13 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D30">
-        <v>163.1</v>
+        <v>165.13</v>
       </c>
       <c r="E30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F30">
         <v>7.2</v>
@@ -2414,13 +2409,13 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D31">
-        <v>163.1</v>
+        <v>165.13</v>
       </c>
       <c r="E31">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F31">
         <v>7.2</v>
@@ -2440,7 +2435,7 @@
         <v>73</v>
       </c>
       <c r="D32">
-        <v>170.3</v>
+        <v>172.4</v>
       </c>
       <c r="E32">
         <v>22</v>
@@ -2460,13 +2455,13 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D33">
-        <v>170.3</v>
+        <v>172.4</v>
       </c>
       <c r="E33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F33">
         <v>7.2</v>
@@ -2483,13 +2478,13 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D34">
-        <v>170.3</v>
+        <v>172.4</v>
       </c>
       <c r="E34">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F34">
         <v>7.2</v>
@@ -2509,7 +2504,7 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>177.5</v>
+        <v>179.67</v>
       </c>
       <c r="E35">
         <v>22</v>
@@ -2529,13 +2524,13 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D36">
-        <v>177.5</v>
+        <v>179.67</v>
       </c>
       <c r="E36">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F36">
         <v>7.2</v>
@@ -2552,13 +2547,13 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D37">
-        <v>177.5</v>
+        <v>179.67</v>
       </c>
       <c r="E37">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F37">
         <v>7.2</v>
@@ -2578,7 +2573,7 @@
         <v>73</v>
       </c>
       <c r="D38">
-        <v>184.7</v>
+        <v>186.93</v>
       </c>
       <c r="E38">
         <v>22</v>
@@ -2598,13 +2593,13 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D39">
-        <v>184.7</v>
+        <v>186.93</v>
       </c>
       <c r="E39">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F39">
         <v>7.2</v>
@@ -2621,13 +2616,13 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D40">
-        <v>184.7</v>
+        <v>186.93</v>
       </c>
       <c r="E40">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F40">
         <v>7.2</v>
@@ -2647,7 +2642,7 @@
         <v>73</v>
       </c>
       <c r="D41">
-        <v>191.9</v>
+        <v>194.2</v>
       </c>
       <c r="E41">
         <v>22</v>
@@ -2667,13 +2662,13 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D42">
-        <v>191.9</v>
+        <v>194.2</v>
       </c>
       <c r="E42">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F42">
         <v>7.2</v>
@@ -2690,13 +2685,13 @@
         <v>44</v>
       </c>
       <c r="C43">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D43">
-        <v>191.9</v>
+        <v>194.2</v>
       </c>
       <c r="E43">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F43">
         <v>7.2</v>
@@ -2716,7 +2711,7 @@
         <v>73</v>
       </c>
       <c r="D44">
-        <v>199.1</v>
+        <v>201.47</v>
       </c>
       <c r="E44">
         <v>22</v>
@@ -2736,13 +2731,13 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D45">
-        <v>199.1</v>
+        <v>201.47</v>
       </c>
       <c r="E45">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F45">
         <v>7.2</v>
@@ -2759,13 +2754,13 @@
         <v>47</v>
       </c>
       <c r="C46">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D46">
-        <v>199.1</v>
+        <v>201.47</v>
       </c>
       <c r="E46">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F46">
         <v>7.2</v>
@@ -2785,7 +2780,7 @@
         <v>73</v>
       </c>
       <c r="D47">
-        <v>206.3</v>
+        <v>208.73</v>
       </c>
       <c r="E47">
         <v>22</v>
@@ -2805,13 +2800,13 @@
         <v>49</v>
       </c>
       <c r="C48">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48">
-        <v>206.3</v>
+        <v>208.73</v>
       </c>
       <c r="E48">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F48">
         <v>7.2</v>
@@ -2828,13 +2823,13 @@
         <v>50</v>
       </c>
       <c r="C49">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D49">
-        <v>206.3</v>
+        <v>208.73</v>
       </c>
       <c r="E49">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F49">
         <v>7.2</v>
@@ -2846,6 +2841,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2853,7 +2849,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B277407A-3865-4C1A-BECC-6ED1758847E7}">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
